--- a/spieler.xlsx
+++ b/spieler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -482,9 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">League of Customs Skill Ranking</t>
   </si>
 </sst>
 </file>
@@ -930,7 +927,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1506,17 +1503,9 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0"/>
-      <c r="B30" s="0"/>
-      <c r="C30" s="0"/>
-      <c r="D30" s="0"/>
-      <c r="E30" s="0"/>
-    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12" t="s">
-        <v>94</v>
-      </c>
+      <c r="A33" s="12"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
     </row>

--- a/spieler.xlsx
+++ b/spieler.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="95">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -482,6 +482,9 @@
   </si>
   <si>
     <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxim(HotAsZoe)</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -669,6 +672,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -927,7 +934,7 @@
   <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B37" activeCellId="0" sqref="B37"/>
+      <selection pane="topLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1239,7 +1246,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>51</v>
@@ -1503,11 +1510,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="12" t="n">
+        <v>5</v>
+      </c>
+    </row>
     <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">
